--- a/Users Loads26.xlsx
+++ b/Users Loads26.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2941885434006632</v>
+        <v>0.1529559107428357</v>
       </c>
       <c r="C2" t="n">
-        <v>4.633416190457403</v>
+        <v>3.481567478546211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3900122586883309</v>
+        <v>0.6038265910131478</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.481854701288873</v>
+        <v>0.5785669179877968</v>
       </c>
       <c r="C3" t="n">
-        <v>6.5658285950815</v>
+        <v>3.822930925446813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5523923569904208</v>
+        <v>0.1250161015212592</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.756813668946042</v>
+        <v>1.737821276811771</v>
       </c>
       <c r="C4" t="n">
-        <v>2.539922960843945</v>
+        <v>6.325291300677108</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1928939222243538</v>
+        <v>0.6398308502528669</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.844474658281693</v>
+        <v>1.7394067353037</v>
       </c>
       <c r="C5" t="n">
-        <v>5.866367596228328</v>
+        <v>10.9377789992432</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7092507251912987</v>
+        <v>0.665042335077213</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.224985191747</v>
+        <v>2.90481312406179</v>
       </c>
       <c r="C6" t="n">
-        <v>8.074903007941412</v>
+        <v>3.503233422261527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5922862795083176</v>
+        <v>0.4292843018538819</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.640722253449882</v>
+        <v>2.963065403756104</v>
       </c>
       <c r="C7" t="n">
-        <v>4.156235620605527</v>
+        <v>9.189054561556619</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5359723627929294</v>
+        <v>0.7665611945348599</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.851874494534252</v>
+        <v>3.057348182023028</v>
       </c>
       <c r="C8" t="n">
-        <v>2.699236932622706</v>
+        <v>4.2378313574539</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3310947393386214</v>
+        <v>0.5438438256526188</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.198819668774457</v>
+        <v>3.98245790651728</v>
       </c>
       <c r="C9" t="n">
-        <v>6.157955545830167</v>
+        <v>3.178732213739998</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8656702087518052</v>
+        <v>0.4433003939978493</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.661065381572559</v>
+        <v>4.154870895207248</v>
       </c>
       <c r="C10" t="n">
-        <v>5.770905877439337</v>
+        <v>3.382924300788006</v>
       </c>
       <c r="D10" t="n">
-        <v>0.526026163289924</v>
+        <v>0.3637092269336034</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.012230017895165</v>
+        <v>4.371852279950501</v>
       </c>
       <c r="C11" t="n">
-        <v>4.327754376961165</v>
+        <v>5.873518273659776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6729819997895627</v>
+        <v>0.4890141683917686</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.17147007213473</v>
+        <v>6.254407157319612</v>
       </c>
       <c r="C12" t="n">
-        <v>3.838262417314855</v>
+        <v>3.26638141237816</v>
       </c>
       <c r="D12" t="n">
-        <v>0.76852603018538</v>
+        <v>0.3087573871438791</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.58051037463668</v>
+        <v>6.738766541087806</v>
       </c>
       <c r="C13" t="n">
-        <v>3.493701023860087</v>
+        <v>2.713729296255412</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4263236425497763</v>
+        <v>0.1339457179427129</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>8.67424320968442</v>
+        <v>7.662805485087888</v>
       </c>
       <c r="C14" t="n">
-        <v>6.181545792963197</v>
+        <v>3.407412149533853</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6668074628557858</v>
+        <v>0.359695825941214</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>8.782531420056891</v>
+        <v>8.262904949117702</v>
       </c>
       <c r="C15" t="n">
-        <v>5.023814145272848</v>
+        <v>9.492941037962895</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6831489719845635</v>
+        <v>0.5902456818286722</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>10.02027270424983</v>
+        <v>8.50991929218389</v>
       </c>
       <c r="C16" t="n">
-        <v>8.373261563587418</v>
+        <v>3.285614111657985</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8419135270659334</v>
+        <v>0.2709420262309196</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>10.95348139815218</v>
+        <v>8.69705375071792</v>
       </c>
       <c r="C17" t="n">
-        <v>3.851730289493991</v>
+        <v>7.458724710971562</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4072891795860047</v>
+        <v>0.1459307743637273</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.22118286949154</v>
+        <v>9.059806421346048</v>
       </c>
       <c r="C18" t="n">
-        <v>5.889177457659842</v>
+        <v>5.952042075168096</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5233177432520528</v>
+        <v>0.4358527076640033</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.2707283193738</v>
+        <v>9.194011424981428</v>
       </c>
       <c r="C19" t="n">
-        <v>5.924354457995927</v>
+        <v>7.348689846938343</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6686770539553463</v>
+        <v>0.657324796998949</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.73518828917004</v>
+        <v>9.301096272707655</v>
       </c>
       <c r="C20" t="n">
-        <v>2.296735659831965</v>
+        <v>5.699023363235254</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5289887462387035</v>
+        <v>0.527880047266682</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.97074644405168</v>
+        <v>9.792385226233492</v>
       </c>
       <c r="C21" t="n">
-        <v>7.289601829273906</v>
+        <v>3.256830101204328</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6168234674647552</v>
+        <v>0.4368594923225819</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>13.6051443040443</v>
+        <v>9.952102081737022</v>
       </c>
       <c r="C22" t="n">
-        <v>9.939098508925518</v>
+        <v>1.687837417567528</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4277471949206524</v>
+        <v>0.3793566826792216</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>14.80124559434034</v>
+        <v>10.58651116426028</v>
       </c>
       <c r="C23" t="n">
-        <v>5.865352773114551</v>
+        <v>5.247866542747327</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5830839011975383</v>
+        <v>0.2245967332860023</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>14.88127876947876</v>
+        <v>11.16034574686445</v>
       </c>
       <c r="C24" t="n">
-        <v>1.644514723962966</v>
+        <v>4.516568625329343</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1864719348988634</v>
+        <v>0.3805734161978625</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15.44504052448545</v>
+        <v>11.44089050340588</v>
       </c>
       <c r="C25" t="n">
-        <v>7.498863436927823</v>
+        <v>5.624997843958699</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6707812454981729</v>
+        <v>0.6802397272715991</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15.57573414428933</v>
+        <v>11.87822519382178</v>
       </c>
       <c r="C26" t="n">
-        <v>7.001880975876682</v>
+        <v>6.425472658696501</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4396023333365597</v>
+        <v>0.7570152895372904</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16.14515412510438</v>
+        <v>12.43183793188566</v>
       </c>
       <c r="C27" t="n">
-        <v>3.380179155957542</v>
+        <v>8.065408150778316</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2394385994463496</v>
+        <v>0.6240280322695405</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16.17185517882308</v>
+        <v>12.54582596823429</v>
       </c>
       <c r="C28" t="n">
-        <v>3.502031561294467</v>
+        <v>8.27426354055109</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3972151895815233</v>
+        <v>0.3915979752419095</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17.2782262721225</v>
+        <v>13.11538317174005</v>
       </c>
       <c r="C29" t="n">
-        <v>5.007306373775894</v>
+        <v>3.693659300528243</v>
       </c>
       <c r="D29" t="n">
-        <v>0.395286415504676</v>
+        <v>0.3271757771553729</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17.54902620010161</v>
+        <v>13.83594690951812</v>
       </c>
       <c r="C30" t="n">
-        <v>3.459129782552571</v>
+        <v>6.275149844075157</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4934631884093252</v>
+        <v>0.2665978532441489</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17.69875729224827</v>
+        <v>14.06123547653299</v>
       </c>
       <c r="C31" t="n">
-        <v>3.877362750133771</v>
+        <v>5.10251253947452</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4270347924898678</v>
+        <v>0.5917242731489503</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>18.01431442580572</v>
+        <v>14.1880537979819</v>
       </c>
       <c r="C32" t="n">
-        <v>3.393127112595955</v>
+        <v>2.198053932643188</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2151007022127642</v>
+        <v>0.3632390151315961</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>18.20480694467375</v>
+        <v>14.48253229571189</v>
       </c>
       <c r="C33" t="n">
-        <v>4.526016316186597</v>
+        <v>5.322348629559204</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6714783925330781</v>
+        <v>0.3857922119709074</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>18.53171234022344</v>
+        <v>14.95230150141164</v>
       </c>
       <c r="C34" t="n">
-        <v>6.69804709935887</v>
+        <v>3.099630476691843</v>
       </c>
       <c r="D34" t="n">
-        <v>0.729957968369895</v>
+        <v>0.203971331083456</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>19.13422700894494</v>
+        <v>15.40275879907433</v>
       </c>
       <c r="C35" t="n">
-        <v>3.712435985612633</v>
+        <v>5.464014260629641</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3903633714816033</v>
+        <v>0.5809101618398324</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>19.82186016936512</v>
+        <v>15.4093561042103</v>
       </c>
       <c r="C36" t="n">
-        <v>7.120170813168435</v>
+        <v>9.504188379343837</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7951164620717206</v>
+        <v>0.2991488110177558</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>19.89080383387819</v>
+        <v>16.00420018528693</v>
       </c>
       <c r="C37" t="n">
-        <v>4.33398963709667</v>
+        <v>4.958757572900819</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5053269711426589</v>
+        <v>0.8332151946723757</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20.44123468060178</v>
+        <v>16.29979226068634</v>
       </c>
       <c r="C38" t="n">
-        <v>3.0485231772603</v>
+        <v>3.869767219931019</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2936854440074924</v>
+        <v>0.7065272373817911</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20.92507441682296</v>
+        <v>16.45424778111021</v>
       </c>
       <c r="C39" t="n">
-        <v>4.003439786693461</v>
+        <v>6.22058028237277</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3595555198576605</v>
+        <v>0.7136562941443262</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20.94862094416503</v>
+        <v>17.04316389854941</v>
       </c>
       <c r="C40" t="n">
-        <v>5.763425886462016</v>
+        <v>7.742634210518684</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4809550804085617</v>
+        <v>0.6665098400046564</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21.41911933897595</v>
+        <v>17.07439180500257</v>
       </c>
       <c r="C41" t="n">
-        <v>3.63041258995317</v>
+        <v>3.050917796892506</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3058746998756408</v>
+        <v>0.4921013769582605</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21.87110627968498</v>
+        <v>17.08019506325446</v>
       </c>
       <c r="C42" t="n">
-        <v>1.367117455083795</v>
+        <v>5.352857647309431</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2129720381293306</v>
+        <v>0.766498387159396</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>22.20025473380165</v>
+        <v>17.76451561101172</v>
       </c>
       <c r="C43" t="n">
-        <v>4.114897336254795</v>
+        <v>3.106862180508561</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5197718047416275</v>
+        <v>0.3898952498853192</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>23.31886497374131</v>
+        <v>17.81235973077253</v>
       </c>
       <c r="C44" t="n">
-        <v>4.388006015946293</v>
+        <v>4.19737789677698</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4330294724978226</v>
+        <v>0.4883782767293578</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>23.97376150280498</v>
+        <v>17.84800208799452</v>
       </c>
       <c r="C45" t="n">
-        <v>5.856526819557384</v>
+        <v>1.897967397399632</v>
       </c>
       <c r="D45" t="n">
-        <v>0.5146470903746158</v>
+        <v>0.2682283639889844</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>24.73069523924877</v>
+        <v>18.6039575815471</v>
       </c>
       <c r="C46" t="n">
-        <v>5.02395781768386</v>
+        <v>6.866396342778453</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2377890763947532</v>
+        <v>0.3555334394995988</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25.24774036973496</v>
+        <v>19.62612744211881</v>
       </c>
       <c r="C47" t="n">
-        <v>2.395989741826563</v>
+        <v>9.275862345668921</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2674876926907666</v>
+        <v>0.743849716918099</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.48590957801297</v>
+        <v>20.42687835388406</v>
       </c>
       <c r="C48" t="n">
-        <v>6.486764381582259</v>
+        <v>3.213763642415508</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5657682295842007</v>
+        <v>0.2654443764804488</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.49105326402213</v>
+        <v>21.37350903504122</v>
       </c>
       <c r="C49" t="n">
-        <v>4.151528395168445</v>
+        <v>6.20554177237763</v>
       </c>
       <c r="D49" t="n">
-        <v>0.5527086096318652</v>
+        <v>0.7712252021934197</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.50576654865252</v>
+        <v>21.45151175949711</v>
       </c>
       <c r="C50" t="n">
-        <v>6.757036936344245</v>
+        <v>2.111453245256194</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4641595085188854</v>
+        <v>0.3751106926331381</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>26.2365558337988</v>
+        <v>21.61486458800524</v>
       </c>
       <c r="C51" t="n">
-        <v>6.055248865744248</v>
+        <v>6.188988540668025</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8430831546910798</v>
+        <v>0.3396379055650028</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>26.82280392784856</v>
+        <v>21.85811664728816</v>
       </c>
       <c r="C52" t="n">
-        <v>2.839920531203038</v>
+        <v>4.284607188035328</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2142760204301628</v>
+        <v>0.3005327164269379</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>27.69241062780664</v>
+        <v>22.3409735657644</v>
       </c>
       <c r="C53" t="n">
-        <v>2.153740804948647</v>
+        <v>5.372903348950926</v>
       </c>
       <c r="D53" t="n">
-        <v>0.339192333066923</v>
+        <v>0.5235004578988312</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.37060595955858</v>
+        <v>22.68928807000271</v>
       </c>
       <c r="C54" t="n">
-        <v>3.90239292689205</v>
+        <v>3.033994542363071</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5936857991765685</v>
+        <v>0.3052101314325963</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>28.70602457410937</v>
+        <v>23.16380942161249</v>
       </c>
       <c r="C55" t="n">
-        <v>3.923007645961811</v>
+        <v>5.45199365586897</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3130710696778355</v>
+        <v>0.6305831035538727</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.22928491261243</v>
+        <v>23.20817249120604</v>
       </c>
       <c r="C56" t="n">
-        <v>5.280958785237089</v>
+        <v>7.184957572168576</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3594539031950148</v>
+        <v>0.6592876183179516</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.37542517487992</v>
+        <v>23.36121326765138</v>
       </c>
       <c r="C57" t="n">
-        <v>6.627354497984279</v>
+        <v>5.47710833886162</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6982307583351872</v>
+        <v>0.6050478801605857</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>30.05360761247232</v>
+        <v>23.39215661581517</v>
       </c>
       <c r="C58" t="n">
-        <v>6.716099452265669</v>
+        <v>7.086222385274719</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5117157041660577</v>
+        <v>0.4941959042109708</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>30.28356275209097</v>
+        <v>23.56480898084986</v>
       </c>
       <c r="C59" t="n">
-        <v>3.819243654153827</v>
+        <v>3.339819748546542</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3494949357449267</v>
+        <v>0.7263096085793413</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>30.56385581226528</v>
+        <v>23.7811709773454</v>
       </c>
       <c r="C60" t="n">
-        <v>2.920385788799394</v>
+        <v>7.581925047674371</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4017828546246252</v>
+        <v>0.4557449237222855</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>31.79239304916108</v>
+        <v>24.00673536743505</v>
       </c>
       <c r="C61" t="n">
-        <v>4.550262690552511</v>
+        <v>4.895456540364771</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5197199492054538</v>
+        <v>0.5587946065025877</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>32.16368775932033</v>
+        <v>24.19794556753876</v>
       </c>
       <c r="C62" t="n">
-        <v>2.911468811942312</v>
+        <v>5.856031468933526</v>
       </c>
       <c r="D62" t="n">
-        <v>0.410682861803901</v>
+        <v>0.5546263524514045</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>33.86212151502368</v>
+        <v>25.44359666040669</v>
       </c>
       <c r="C63" t="n">
-        <v>4.877781480070468</v>
+        <v>6.574246009517994</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1937146587115012</v>
+        <v>0.6795710778744424</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>34.68337693411603</v>
+        <v>26.16601541162367</v>
       </c>
       <c r="C64" t="n">
-        <v>2.414321478318024</v>
+        <v>5.29818402215628</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1971498687635575</v>
+        <v>0.3575125390783964</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>34.81344457433867</v>
+        <v>26.23689498528</v>
       </c>
       <c r="C65" t="n">
-        <v>3.829232012522265</v>
+        <v>2.353260526427467</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4088790357376632</v>
+        <v>0.3704611063304382</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>35.10572812752648</v>
+        <v>26.24793781525867</v>
       </c>
       <c r="C66" t="n">
-        <v>8.748933282541339</v>
+        <v>3.282571418093107</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6544579353430011</v>
+        <v>0.1524479628129242</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>35.11211182147795</v>
+        <v>26.53309753322867</v>
       </c>
       <c r="C67" t="n">
-        <v>6.027420148412483</v>
+        <v>4.265168800462901</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7138486553308515</v>
+        <v>0.4994231846833473</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>35.15128093144826</v>
+        <v>26.66055149296337</v>
       </c>
       <c r="C68" t="n">
-        <v>1.920498438311996</v>
+        <v>3.633199376540024</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2671821442086827</v>
+        <v>0.1472988959099112</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>35.39793280096917</v>
+        <v>26.70828648090382</v>
       </c>
       <c r="C69" t="n">
-        <v>5.008301618975692</v>
+        <v>5.309045883087242</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3886824959696609</v>
+        <v>0.6579869863794919</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>35.61914912492711</v>
+        <v>26.87561279373357</v>
       </c>
       <c r="C70" t="n">
-        <v>6.77549800887833</v>
+        <v>5.275430436002582</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5248048374792015</v>
+        <v>0.405854150554505</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>36.55274590158156</v>
+        <v>26.88078637201682</v>
       </c>
       <c r="C71" t="n">
-        <v>5.512918709268401</v>
+        <v>6.406268535633171</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7955347073008842</v>
+        <v>0.6796817728126749</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>37.62360096229165</v>
+        <v>27.15544901070453</v>
       </c>
       <c r="C72" t="n">
-        <v>1.607620016516826</v>
+        <v>2.04023111464552</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2388133469885128</v>
+        <v>0.3836641089482079</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>39.33423098006355</v>
+        <v>27.52912609036945</v>
       </c>
       <c r="C73" t="n">
-        <v>6.683932353075981</v>
+        <v>3.726888216856331</v>
       </c>
       <c r="D73" t="n">
-        <v>0.8291033834476288</v>
+        <v>0.4342807056017021</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>39.37464025931782</v>
+        <v>28.75016138761339</v>
       </c>
       <c r="C74" t="n">
-        <v>9.62157302250211</v>
+        <v>3.678795462294377</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5397590816246999</v>
+        <v>0.4098734902636776</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>39.69297774619534</v>
+        <v>28.84858181935501</v>
       </c>
       <c r="C75" t="n">
-        <v>4.491094892429308</v>
+        <v>4.746200219298711</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5864251927343352</v>
+        <v>0.441447383469131</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>40.28808150735081</v>
+        <v>28.92377409372527</v>
       </c>
       <c r="C76" t="n">
-        <v>7.028259291768217</v>
+        <v>3.738995532548739</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6599467343396467</v>
+        <v>0.6251243922653322</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>40.75502652657281</v>
+        <v>29.2087024287652</v>
       </c>
       <c r="C77" t="n">
-        <v>1.544023875361227</v>
+        <v>5.707614699760475</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2262677754321906</v>
+        <v>0.4960815419250438</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>41.88614248573045</v>
+        <v>29.51559117781804</v>
       </c>
       <c r="C78" t="n">
-        <v>4.973819705923886</v>
+        <v>4.902617507053801</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6001066179942279</v>
+        <v>0.3233686896065759</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>42.04685485416742</v>
+        <v>29.70059909599408</v>
       </c>
       <c r="C79" t="n">
-        <v>6.193876954239653</v>
+        <v>4.446202032918743</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3040572535788448</v>
+        <v>0.512029788656606</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>42.97454749901265</v>
+        <v>29.72291456247341</v>
       </c>
       <c r="C80" t="n">
-        <v>3.877032514156732</v>
+        <v>4.977313775658166</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6558057854235212</v>
+        <v>0.4194235995501389</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>43.17434288072656</v>
+        <v>29.76044683099506</v>
       </c>
       <c r="C81" t="n">
-        <v>7.211086425316216</v>
+        <v>6.696499939258756</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4533758538893981</v>
+        <v>0.5929116870333864</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>43.46129383121272</v>
+        <v>29.81577645250873</v>
       </c>
       <c r="C82" t="n">
-        <v>4.54624164185894</v>
+        <v>5.265289047248844</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5599621161515119</v>
+        <v>0.5537249336098462</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>43.93716649199296</v>
+        <v>30.17709540239713</v>
       </c>
       <c r="C83" t="n">
-        <v>3.632093818058782</v>
+        <v>3.662028679796828</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5613334882449529</v>
+        <v>0.3391296762489295</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>43.99086522224832</v>
+        <v>31.28316790034814</v>
       </c>
       <c r="C84" t="n">
-        <v>5.204990385278249</v>
+        <v>1.598652280567286</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4758041322850473</v>
+        <v>0.2492958966155774</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>44.32046274067227</v>
+        <v>32.0030352940359</v>
       </c>
       <c r="C85" t="n">
-        <v>6.217724760610064</v>
+        <v>6.045592162590095</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4149934587495301</v>
+        <v>0.4502691902916579</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>46.44183562395844</v>
+        <v>32.45731004555834</v>
       </c>
       <c r="C86" t="n">
-        <v>3.273320376068777</v>
+        <v>4.359474720893418</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3455277405706634</v>
+        <v>0.6589936089203136</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>46.52501190851078</v>
+        <v>33.75595823422795</v>
       </c>
       <c r="C87" t="n">
-        <v>5.426122655933887</v>
+        <v>6.381210064357015</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4922151772316288</v>
+        <v>0.4256706980324371</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>46.6886021495866</v>
+        <v>34.23936344755591</v>
       </c>
       <c r="C88" t="n">
-        <v>3.849545376749498</v>
+        <v>2.616515221865395</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5683639067455895</v>
+        <v>0.3044072479439082</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>47.36176405914579</v>
+        <v>34.66069256077945</v>
       </c>
       <c r="C89" t="n">
-        <v>3.807387332707746</v>
+        <v>3.911289336610948</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2047267831886493</v>
+        <v>0.6794095040613711</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>47.44381443925608</v>
+        <v>35.22507964776482</v>
       </c>
       <c r="C90" t="n">
-        <v>7.999272469724361</v>
+        <v>2.805387657803278</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5881337486218232</v>
+        <v>0.4364151519159738</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>47.94574959370132</v>
+        <v>35.53928887899353</v>
       </c>
       <c r="C91" t="n">
-        <v>4.869979490377228</v>
+        <v>4.326787832316234</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4661726531716385</v>
+        <v>0.5144326092188672</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>49.242373524599</v>
+        <v>35.95049179929232</v>
       </c>
       <c r="C92" t="n">
-        <v>5.24561365137724</v>
+        <v>5.274592661913369</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7075130678092413</v>
+        <v>0.3557408425933801</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>49.52582587868059</v>
+        <v>36.07809622348087</v>
       </c>
       <c r="C93" t="n">
-        <v>2.509412054398228</v>
+        <v>2.081712024405291</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4092089624194112</v>
+        <v>0.2431745464372339</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>49.85516127716661</v>
+        <v>36.12499028829504</v>
       </c>
       <c r="C94" t="n">
-        <v>3.336234601757525</v>
+        <v>3.164497753542536</v>
       </c>
       <c r="D94" t="n">
-        <v>0.435041412047057</v>
+        <v>0.7451187060053485</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>50.13966438057398</v>
+        <v>36.25513428058829</v>
       </c>
       <c r="C95" t="n">
-        <v>2.725882855288662</v>
+        <v>3.883644497462992</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4442906242619312</v>
+        <v>0.7333907781358084</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>51.81310274814044</v>
+        <v>36.48419253562961</v>
       </c>
       <c r="C96" t="n">
-        <v>2.221989666638827</v>
+        <v>5.186279395542766</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1306324784308873</v>
+        <v>0.5764671946385762</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>52.72576511948514</v>
+        <v>36.86507287892843</v>
       </c>
       <c r="C97" t="n">
-        <v>4.771901587074874</v>
+        <v>6.099790208608891</v>
       </c>
       <c r="D97" t="n">
-        <v>0.8536932471157548</v>
+        <v>0.587903830916002</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>53.81340243099917</v>
+        <v>36.97313372959348</v>
       </c>
       <c r="C98" t="n">
-        <v>3.03409795419447</v>
+        <v>4.545777648049199</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4195767797115771</v>
+        <v>0.6615444410352304</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>55.41412798414552</v>
+        <v>37.61621223650378</v>
       </c>
       <c r="C99" t="n">
-        <v>2.283869738546563</v>
+        <v>2.188085715615094</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2708335790831414</v>
+        <v>0.4128086011929521</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>55.83043038999767</v>
+        <v>38.15027761246728</v>
       </c>
       <c r="C100" t="n">
-        <v>8.428209490533218</v>
+        <v>7.80817965842712</v>
       </c>
       <c r="D100" t="n">
-        <v>0.593783183597673</v>
+        <v>0.79023195609436</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>56.35240963631691</v>
+        <v>39.0008754434175</v>
       </c>
       <c r="C101" t="n">
-        <v>2.483953055634582</v>
+        <v>3.440016026151054</v>
       </c>
       <c r="D101" t="n">
-        <v>0.2708525815226788</v>
+        <v>0.4861894902608639</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>57.25123850009418</v>
+        <v>39.02837078374306</v>
       </c>
       <c r="C102" t="n">
-        <v>1.890580006916026</v>
+        <v>4.122175927641349</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3165149021521649</v>
+        <v>0.4445282236594337</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>57.90281967559342</v>
+        <v>40.2337706240866</v>
       </c>
       <c r="C103" t="n">
-        <v>8.069069394421813</v>
+        <v>7.933576091658386</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6535550433498886</v>
+        <v>0.2697282531250045</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>58.35373237449849</v>
+        <v>40.55992003031457</v>
       </c>
       <c r="C104" t="n">
-        <v>1.847863559436511</v>
+        <v>3.666186241843033</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3570399362888261</v>
+        <v>0.3214198361557169</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>58.59587170540338</v>
+        <v>40.66765397927685</v>
       </c>
       <c r="C105" t="n">
-        <v>3.792288102199037</v>
+        <v>5.604188059304303</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5426583224574402</v>
+        <v>0.3015473179931041</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>59.34692110978989</v>
+        <v>42.05405850887112</v>
       </c>
       <c r="C106" t="n">
-        <v>5.421702751923177</v>
+        <v>4.074351353594534</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9738528247381555</v>
+        <v>0.4367907115213894</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>59.45320729559949</v>
+        <v>43.62940239548513</v>
       </c>
       <c r="C107" t="n">
-        <v>1.529580828967435</v>
+        <v>5.427235604815571</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3032457766821876</v>
+        <v>0.6065554888738866</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>60.79256532752605</v>
+        <v>43.91809775031523</v>
       </c>
       <c r="C108" t="n">
-        <v>4.888131828046411</v>
+        <v>3.560288545924141</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8886075733324688</v>
+        <v>0.2410054282739502</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>61.20663052906082</v>
+        <v>44.37000494658522</v>
       </c>
       <c r="C109" t="n">
-        <v>8.319256012967065</v>
+        <v>2.615435818759094</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4466854911793322</v>
+        <v>0.5699805971856078</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>61.3172491022497</v>
+        <v>44.91699293811659</v>
       </c>
       <c r="C110" t="n">
-        <v>6.225234955151486</v>
+        <v>6.225851503629968</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6590844723113155</v>
+        <v>0.5217431000013464</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>61.53067049140479</v>
+        <v>45.19523392587862</v>
       </c>
       <c r="C111" t="n">
-        <v>7.166995507463083</v>
+        <v>5.725047732228293</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4859889494676001</v>
+        <v>0.4932314520561785</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>61.53611586798047</v>
+        <v>45.22440736458117</v>
       </c>
       <c r="C112" t="n">
-        <v>7.248972075913651</v>
+        <v>10.12070528927855</v>
       </c>
       <c r="D112" t="n">
-        <v>0.690573268932224</v>
+        <v>0.301602497480021</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>61.58316893900762</v>
+        <v>46.61960964602459</v>
       </c>
       <c r="C113" t="n">
-        <v>6.459135418866439</v>
+        <v>5.296708655996701</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6055802153649321</v>
+        <v>0.8697742057306633</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>62.12734068632265</v>
+        <v>46.97483358667527</v>
       </c>
       <c r="C114" t="n">
-        <v>3.446799465469558</v>
+        <v>3.779548306570887</v>
       </c>
       <c r="D114" t="n">
-        <v>0.1843638599584391</v>
+        <v>0.5754920389822618</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>63.14628670571665</v>
+        <v>47.23989314570173</v>
       </c>
       <c r="C115" t="n">
-        <v>3.130806532673933</v>
+        <v>5.013907061913434</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1485179797679443</v>
+        <v>0.7408383204028206</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>63.31360439356781</v>
+        <v>47.58928465319057</v>
       </c>
       <c r="C116" t="n">
-        <v>2.18075437149929</v>
+        <v>1.821212738516236</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3987361648339049</v>
+        <v>0.3627439260933703</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>63.87476583368374</v>
+        <v>47.70739752115432</v>
       </c>
       <c r="C117" t="n">
-        <v>5.312071849164134</v>
+        <v>5.95592447090499</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4035158799942435</v>
+        <v>0.4910783317678208</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>64.14437718220444</v>
+        <v>48.89973897219822</v>
       </c>
       <c r="C118" t="n">
-        <v>8.026493098733191</v>
+        <v>1.790738473383916</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5603802529894646</v>
+        <v>0.3230865279970432</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>64.63223949370798</v>
+        <v>49.60277027176348</v>
       </c>
       <c r="C119" t="n">
-        <v>3.044464991265183</v>
+        <v>5.032838546686968</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5468586503113699</v>
+        <v>0.6815470447487251</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>64.7684077162635</v>
+        <v>49.89833165719083</v>
       </c>
       <c r="C120" t="n">
-        <v>3.856409972150501</v>
+        <v>2.922475410637275</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4963593290350166</v>
+        <v>0.1947456192550142</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>65.00103355574623</v>
+        <v>51.21743071669556</v>
       </c>
       <c r="C121" t="n">
-        <v>2.661697980930715</v>
+        <v>6.504949522001437</v>
       </c>
       <c r="D121" t="n">
-        <v>0.2303738462443994</v>
+        <v>0.7190652889167721</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>65.11814369040127</v>
+        <v>51.86685260565823</v>
       </c>
       <c r="C122" t="n">
-        <v>2.9011346140028</v>
+        <v>2.017942960106109</v>
       </c>
       <c r="D122" t="n">
-        <v>0.1867129627033318</v>
+        <v>0.4153252281727047</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>65.63532045842562</v>
+        <v>52.79527434339808</v>
       </c>
       <c r="C123" t="n">
-        <v>2.225997258150743</v>
+        <v>1.913878609083053</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5481636384854991</v>
+        <v>0.235314669334523</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>65.81774217555281</v>
+        <v>53.3864903705426</v>
       </c>
       <c r="C124" t="n">
-        <v>7.113329492926804</v>
+        <v>1.924477651052575</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4127531107542813</v>
+        <v>0.3952551590912801</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>67.20936073365061</v>
+        <v>54.7967485297357</v>
       </c>
       <c r="C125" t="n">
-        <v>3.696762646709853</v>
+        <v>5.964565377431825</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3542486173117467</v>
+        <v>0.3866804552228429</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>67.38453225060977</v>
+        <v>54.82532317308478</v>
       </c>
       <c r="C126" t="n">
-        <v>5.603479681774914</v>
+        <v>2.871574403307338</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3851350610996446</v>
+        <v>0.445910360015435</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>67.41102977326679</v>
+        <v>55.0055373435183</v>
       </c>
       <c r="C127" t="n">
-        <v>2.888383865977626</v>
+        <v>2.551224892765364</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3508035932910513</v>
+        <v>0.3158065552666172</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>68.40096361900257</v>
+        <v>55.01411243360949</v>
       </c>
       <c r="C128" t="n">
-        <v>3.451177235449117</v>
+        <v>2.619743770539669</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3669704574797505</v>
+        <v>0.5194815129581867</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>68.51605896729134</v>
+        <v>55.35599741933899</v>
       </c>
       <c r="C129" t="n">
-        <v>6.630791473130973</v>
+        <v>7.384050379862648</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5323281869917943</v>
+        <v>0.4229785611656057</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>69.00720052514593</v>
+        <v>55.55799239183984</v>
       </c>
       <c r="C130" t="n">
-        <v>5.049490583939781</v>
+        <v>5.878695433419591</v>
       </c>
       <c r="D130" t="n">
-        <v>0.3702428929324231</v>
+        <v>0.7160508181539726</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>69.15659860661491</v>
+        <v>55.69573889758801</v>
       </c>
       <c r="C131" t="n">
-        <v>6.224873057469963</v>
+        <v>1.327295178586266</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5289989028900316</v>
+        <v>0.3394339890132669</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>69.79919763374474</v>
+        <v>56.56057526236286</v>
       </c>
       <c r="C132" t="n">
-        <v>2.922444114077575</v>
+        <v>5.554672915028934</v>
       </c>
       <c r="D132" t="n">
-        <v>0.3654668439039834</v>
+        <v>0.4133440123119286</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>69.83016327795306</v>
+        <v>56.63443479686659</v>
       </c>
       <c r="C133" t="n">
-        <v>3.295859765138084</v>
+        <v>3.19259778530677</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2641381403935313</v>
+        <v>0.4531978060442117</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>70.68521788104478</v>
+        <v>56.92275295929364</v>
       </c>
       <c r="C134" t="n">
-        <v>4.947311152970584</v>
+        <v>8.034100283564351</v>
       </c>
       <c r="D134" t="n">
-        <v>0.565762778648165</v>
+        <v>0.6549828929000373</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>71.30728653839193</v>
+        <v>57.00214091304712</v>
       </c>
       <c r="C135" t="n">
-        <v>2.926737360121729</v>
+        <v>6.358006306997297</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2539382786118654</v>
+        <v>0.6974190132166757</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>71.91355804597572</v>
+        <v>57.07574573241466</v>
       </c>
       <c r="C136" t="n">
-        <v>4.854643230094933</v>
+        <v>2.31137115940489</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3222734882988396</v>
+        <v>0.405254217324305</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>71.98939696826616</v>
+        <v>57.28984890345308</v>
       </c>
       <c r="C137" t="n">
-        <v>3.752199505169872</v>
+        <v>6.924409890282631</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2645271705087755</v>
+        <v>0.2470706895316756</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>72.10442731695696</v>
+        <v>57.50572074171921</v>
       </c>
       <c r="C138" t="n">
-        <v>6.903798602094449</v>
+        <v>3.827074309756831</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6501566641739578</v>
+        <v>0.5321534228597443</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>72.57076544174011</v>
+        <v>57.83038699591791</v>
       </c>
       <c r="C139" t="n">
-        <v>4.726751217217042</v>
+        <v>7.701901884764829</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6407742141464903</v>
+        <v>0.4724486662068282</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>74.71743139349041</v>
+        <v>57.97535042018239</v>
       </c>
       <c r="C140" t="n">
-        <v>2.74650420199493</v>
+        <v>5.19524414733692</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6760264385652263</v>
+        <v>0.5389036982122444</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>75.0016651356221</v>
+        <v>58.46981682379631</v>
       </c>
       <c r="C141" t="n">
-        <v>3.280042244979597</v>
+        <v>3.139717121717857</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6176073339280387</v>
+        <v>0.7141319854793085</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>75.83310455754155</v>
+        <v>58.48885749419104</v>
       </c>
       <c r="C142" t="n">
-        <v>4.32157085927514</v>
+        <v>4.436107027537204</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4450089118707919</v>
+        <v>0.4192403238354824</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>77.1857282659458</v>
+        <v>59.60841609360757</v>
       </c>
       <c r="C143" t="n">
-        <v>2.79215948591649</v>
+        <v>3.268467265781291</v>
       </c>
       <c r="D143" t="n">
-        <v>0.3302703750158468</v>
+        <v>0.5712280541452859</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>77.4213301295939</v>
+        <v>59.6312158634487</v>
       </c>
       <c r="C144" t="n">
-        <v>8.419539619621951</v>
+        <v>2.022988949355511</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6092127091812939</v>
+        <v>0.2129224867425018</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>78.2681856057016</v>
+        <v>59.69683232342006</v>
       </c>
       <c r="C145" t="n">
-        <v>6.905198126595992</v>
+        <v>1.887509191027225</v>
       </c>
       <c r="D145" t="n">
-        <v>0.3664694940863235</v>
+        <v>0.3519011934920446</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>79.52610151850635</v>
+        <v>59.94081310020297</v>
       </c>
       <c r="C146" t="n">
-        <v>4.223983250473705</v>
+        <v>4.375111567838317</v>
       </c>
       <c r="D146" t="n">
-        <v>0.3399179398288672</v>
+        <v>0.5923823027515583</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>79.59010176967223</v>
+        <v>60.17580678446144</v>
       </c>
       <c r="C147" t="n">
-        <v>4.458556466609611</v>
+        <v>1.862663768047362</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6791275796605086</v>
+        <v>0.2040381625936131</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>80.60777969264512</v>
+        <v>60.28075068870886</v>
       </c>
       <c r="C148" t="n">
-        <v>5.514708980147937</v>
+        <v>2.631844547823729</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4595854125050673</v>
+        <v>0.5132954650742068</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>80.73227851891933</v>
+        <v>60.38392272185465</v>
       </c>
       <c r="C149" t="n">
-        <v>4.021849618416306</v>
+        <v>6.06618096762822</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4061960453674741</v>
+        <v>0.5893630715759963</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>80.76574170205203</v>
+        <v>60.63182276825439</v>
       </c>
       <c r="C150" t="n">
-        <v>1.697210752600756</v>
+        <v>4.239605983227595</v>
       </c>
       <c r="D150" t="n">
-        <v>0.1950576190033067</v>
+        <v>0.6404212238774482</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>81.59351446916841</v>
+        <v>60.85670331427794</v>
       </c>
       <c r="C151" t="n">
-        <v>3.576392227250142</v>
+        <v>3.939178925758037</v>
       </c>
       <c r="D151" t="n">
-        <v>0.2236825485104296</v>
+        <v>0.406919238750775</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>82.5756742577385</v>
+        <v>61.89333867254555</v>
       </c>
       <c r="C152" t="n">
-        <v>5.477764124757147</v>
+        <v>4.87440731458036</v>
       </c>
       <c r="D152" t="n">
-        <v>0.3087157668470516</v>
+        <v>0.738968970572242</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>82.8270607768024</v>
+        <v>62.14300728348204</v>
       </c>
       <c r="C153" t="n">
-        <v>2.160379845745711</v>
+        <v>4.99671787461927</v>
       </c>
       <c r="D153" t="n">
-        <v>0.1893461167527565</v>
+        <v>0.2663438466052733</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>82.93352990884695</v>
+        <v>62.95162494329688</v>
       </c>
       <c r="C154" t="n">
-        <v>9.569673402957742</v>
+        <v>7.833519653331017</v>
       </c>
       <c r="D154" t="n">
-        <v>0.7068703780860743</v>
+        <v>0.7735852787914379</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>83.26865875532135</v>
+        <v>62.99599886273987</v>
       </c>
       <c r="C155" t="n">
-        <v>3.287679627654088</v>
+        <v>2.352510535058285</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3478454488080007</v>
+        <v>0.1491317610043548</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>83.40944661255297</v>
+        <v>63.43953272063801</v>
       </c>
       <c r="C156" t="n">
-        <v>2.253508546817142</v>
+        <v>5.292282351238883</v>
       </c>
       <c r="D156" t="n">
-        <v>0.3500880115322528</v>
+        <v>0.4177228726331408</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>83.68588247025346</v>
+        <v>63.91927689271417</v>
       </c>
       <c r="C157" t="n">
-        <v>3.26932015757988</v>
+        <v>4.583807233631392</v>
       </c>
       <c r="D157" t="n">
-        <v>0.3224769069306154</v>
+        <v>0.4106269604288915</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>84.32701889461919</v>
+        <v>64.24850255574957</v>
       </c>
       <c r="C158" t="n">
-        <v>7.459769194419465</v>
+        <v>5.265667704151773</v>
       </c>
       <c r="D158" t="n">
-        <v>0.742561361481781</v>
+        <v>0.7748995656783324</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>84.62048107869582</v>
+        <v>64.39518232435954</v>
       </c>
       <c r="C159" t="n">
-        <v>5.813531060739098</v>
+        <v>7.95253463410001</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6323398651248664</v>
+        <v>0.6909615127903045</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>85.84246317067799</v>
+        <v>64.63875974145191</v>
       </c>
       <c r="C160" t="n">
-        <v>2.12977685144478</v>
+        <v>4.701431300191913</v>
       </c>
       <c r="D160" t="n">
-        <v>0.2729323689121678</v>
+        <v>0.653865454223495</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>86.6076326947089</v>
+        <v>65.13278911866499</v>
       </c>
       <c r="C161" t="n">
-        <v>3.267747955123435</v>
+        <v>4.850527484946645</v>
       </c>
       <c r="D161" t="n">
-        <v>0.3930467416275057</v>
+        <v>0.4723202312582286</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>86.91032321457392</v>
+        <v>65.51634545795558</v>
       </c>
       <c r="C162" t="n">
-        <v>5.96825460850178</v>
+        <v>7.957206589965597</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4456372941578804</v>
+        <v>0.3274911986050622</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>87.00973624816007</v>
+        <v>65.62816718097179</v>
       </c>
       <c r="C163" t="n">
-        <v>3.295421221283568</v>
+        <v>3.562898509371337</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4719216287241459</v>
+        <v>0.4558633801655014</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>87.14827733901278</v>
+        <v>65.71653292085671</v>
       </c>
       <c r="C164" t="n">
-        <v>4.44168760512417</v>
+        <v>5.427638179771925</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4459500586180283</v>
+        <v>0.5343208840574711</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>87.78517052718848</v>
+        <v>65.72129725032245</v>
       </c>
       <c r="C165" t="n">
-        <v>2.388795932492651</v>
+        <v>5.726952988090383</v>
       </c>
       <c r="D165" t="n">
-        <v>0.3341346588421598</v>
+        <v>0.478860414817166</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>89.85614439082836</v>
+        <v>65.92294011233128</v>
       </c>
       <c r="C166" t="n">
-        <v>2.60649958290107</v>
+        <v>6.302671053071179</v>
       </c>
       <c r="D166" t="n">
-        <v>0.1996211365868465</v>
+        <v>0.3632466683038849</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>90.53839622830114</v>
+        <v>67.04662764973266</v>
       </c>
       <c r="C167" t="n">
-        <v>3.532318280862774</v>
+        <v>3.678595425919078</v>
       </c>
       <c r="D167" t="n">
-        <v>0.7146383448555284</v>
+        <v>0.7103350129073638</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>90.62705502524595</v>
+        <v>67.39511371957731</v>
       </c>
       <c r="C168" t="n">
-        <v>6.455865290419649</v>
+        <v>3.207812110742573</v>
       </c>
       <c r="D168" t="n">
-        <v>0.7800525658254183</v>
+        <v>0.3539218600627817</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>90.67203721043009</v>
+        <v>69.36343658709779</v>
       </c>
       <c r="C169" t="n">
-        <v>3.740136177008097</v>
+        <v>5.069536268096839</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1870300690476626</v>
+        <v>0.5227317352427934</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>91.1457539787142</v>
+        <v>69.62911338419437</v>
       </c>
       <c r="C170" t="n">
-        <v>3.849416596746954</v>
+        <v>8.532177532492442</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3966668391516565</v>
+        <v>0.6329531390802976</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>92.25525058015222</v>
+        <v>69.95673641545257</v>
       </c>
       <c r="C171" t="n">
-        <v>6.643903753043523</v>
+        <v>2.81234526289836</v>
       </c>
       <c r="D171" t="n">
-        <v>0.4069989216016515</v>
+        <v>0.3898791233934995</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>92.29859188664507</v>
+        <v>70.06317429313273</v>
       </c>
       <c r="C172" t="n">
-        <v>6.048326727992322</v>
+        <v>5.221394401462062</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6175709175298704</v>
+        <v>0.4705598716656761</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>92.7510868650335</v>
+        <v>70.09218938003559</v>
       </c>
       <c r="C173" t="n">
-        <v>3.150841471636319</v>
+        <v>2.33828967729843</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4898897886199071</v>
+        <v>0.2384206481901365</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>93.12388214822055</v>
+        <v>70.34743840450142</v>
       </c>
       <c r="C174" t="n">
-        <v>5.694801376272232</v>
+        <v>4.626281778015283</v>
       </c>
       <c r="D174" t="n">
-        <v>0.6251290786395418</v>
+        <v>0.3239097008850649</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>93.17296363303875</v>
+        <v>70.64794882090659</v>
       </c>
       <c r="C175" t="n">
-        <v>5.991474905143034</v>
+        <v>1.845115001461412</v>
       </c>
       <c r="D175" t="n">
-        <v>0.7691284724082277</v>
+        <v>0.290471491927965</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>93.30428444374236</v>
+        <v>70.90683467904853</v>
       </c>
       <c r="C176" t="n">
-        <v>1.171264983780822</v>
+        <v>4.531015253707938</v>
       </c>
       <c r="D176" t="n">
-        <v>0.2379941686544277</v>
+        <v>0.460523523651593</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>93.84408292557275</v>
+        <v>72.10192929019559</v>
       </c>
       <c r="C177" t="n">
-        <v>1.922472163818532</v>
+        <v>2.004385441356305</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3480983681387702</v>
+        <v>0.3298646608150652</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>94.45470510224973</v>
+        <v>72.14724454081444</v>
       </c>
       <c r="C178" t="n">
-        <v>4.423385398558783</v>
+        <v>4.041557627831519</v>
       </c>
       <c r="D178" t="n">
-        <v>0.3829216515435503</v>
+        <v>0.643471728753735</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>94.56290414243115</v>
+        <v>72.68647061159787</v>
       </c>
       <c r="C179" t="n">
-        <v>3.531529026914951</v>
+        <v>3.321566316102382</v>
       </c>
       <c r="D179" t="n">
-        <v>0.4493187435839238</v>
+        <v>0.509327807884543</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>94.78708293634885</v>
+        <v>73.2526370454366</v>
       </c>
       <c r="C180" t="n">
-        <v>4.490132035309979</v>
+        <v>3.732138210202395</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4608880998630776</v>
+        <v>0.4901655717330358</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>95.43406632689258</v>
+        <v>74.04847585662621</v>
       </c>
       <c r="C181" t="n">
-        <v>5.521563557252126</v>
+        <v>5.523377496156336</v>
       </c>
       <c r="D181" t="n">
-        <v>0.6227710123290571</v>
+        <v>0.6597695751139279</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>95.46983160810964</v>
+        <v>74.49115963632448</v>
       </c>
       <c r="C182" t="n">
-        <v>7.239048991262742</v>
+        <v>8.830657350402127</v>
       </c>
       <c r="D182" t="n">
-        <v>0.8626703080811743</v>
+        <v>0.5932257537531974</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>96.14759404128567</v>
+        <v>75.30039480518479</v>
       </c>
       <c r="C183" t="n">
-        <v>5.664080276075098</v>
+        <v>8.934364107917892</v>
       </c>
       <c r="D183" t="n">
-        <v>0.6113927954232986</v>
+        <v>0.5801404695607018</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>96.4063913551</v>
+        <v>75.67208649797952</v>
       </c>
       <c r="C184" t="n">
-        <v>5.381527611637843</v>
+        <v>5.558609690668505</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4068272029739677</v>
+        <v>0.7194670297769148</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>97.22395014329406</v>
+        <v>77.38474334080112</v>
       </c>
       <c r="C185" t="n">
-        <v>5.841796389607739</v>
+        <v>5.14507074763847</v>
       </c>
       <c r="D185" t="n">
-        <v>0.6849788914222638</v>
+        <v>0.6879544400530446</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>98.30130130433379</v>
+        <v>77.50440510923674</v>
       </c>
       <c r="C186" t="n">
-        <v>3.42771761762079</v>
+        <v>4.28696201733281</v>
       </c>
       <c r="D186" t="n">
-        <v>0.435210509926739</v>
+        <v>0.4786560670595985</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>99.65938353864718</v>
+        <v>77.64795227684209</v>
       </c>
       <c r="C187" t="n">
-        <v>6.010067523445437</v>
+        <v>3.672585613166906</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3390331597086019</v>
+        <v>0.2826526624808691</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,601 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>99.91326137978064</v>
+        <v>77.7288931182548</v>
       </c>
       <c r="C188" t="n">
-        <v>2.834605592374605</v>
+        <v>1.678815565863964</v>
       </c>
       <c r="D188" t="n">
-        <v>0.1419972273439646</v>
+        <v>0.3933631222158563</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>78.0298222481845</v>
+      </c>
+      <c r="C189" t="n">
+        <v>6.957455399456902</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0.4505390841255634</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>78.16261515212068</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.071844510087499</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0.2738816291489493</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>78.64350291129998</v>
+      </c>
+      <c r="C191" t="n">
+        <v>4.312134676088745</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0.5840632298315291</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>78.924061988861</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.12339965920946</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.1757827245115615</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>80.41222680972417</v>
+      </c>
+      <c r="C193" t="n">
+        <v>7.7171456021083</v>
+      </c>
+      <c r="D193" t="n">
+        <v>0.3936241248886587</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>83.24517117086884</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.305651524757941</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0.4018034864186453</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>84.22602000248995</v>
+      </c>
+      <c r="C195" t="n">
+        <v>11.15556527731266</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0.4486286102099181</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>84.78318195654643</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.939483068615171</v>
+      </c>
+      <c r="D196" t="n">
+        <v>0.2815579871101278</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>84.78939136023658</v>
+      </c>
+      <c r="C197" t="n">
+        <v>7.710679454479449</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.4008865692340191</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>85.08428239601058</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.959889196142649</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0.3728834685140413</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>85.31344916560163</v>
+      </c>
+      <c r="C199" t="n">
+        <v>4.347618549487966</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.6937905361606321</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>85.56309934552345</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.319291119775127</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0.5105797287047252</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>85.79868632362222</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.640573576096435</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.1606792321888784</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>86.11509709247566</v>
+      </c>
+      <c r="C202" t="n">
+        <v>3.101921437173838</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0.4721362831165489</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>86.53671656678483</v>
+      </c>
+      <c r="C203" t="n">
+        <v>4.235294725349405</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0.3964047238735761</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>86.86793736576473</v>
+      </c>
+      <c r="C204" t="n">
+        <v>4.839771070348815</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0.3027407302719679</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>87.18444913420838</v>
+      </c>
+      <c r="C205" t="n">
+        <v>6.373330323923662</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.3061748078306982</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>88.81001616725757</v>
+      </c>
+      <c r="C206" t="n">
+        <v>7.135192501078846</v>
+      </c>
+      <c r="D206" t="n">
+        <v>0.5749107948400903</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>89.19133455014433</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.811071956447988</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0.5267234851693315</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>89.30939278803602</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.318968604391685</v>
+      </c>
+      <c r="D208" t="n">
+        <v>0.6393894004561849</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>90.50663884926654</v>
+      </c>
+      <c r="C209" t="n">
+        <v>4.705242034175998</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5578730954160008</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>91.31371904427353</v>
+      </c>
+      <c r="C210" t="n">
+        <v>4.895843717068611</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.6312788816861443</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>91.34532140142026</v>
+      </c>
+      <c r="C211" t="n">
+        <v>4.70730992644606</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0.554429139929009</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>91.48955926584883</v>
+      </c>
+      <c r="C212" t="n">
+        <v>9.050738320137597</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.5339542173066633</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>91.58689997223404</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.521989609284286</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0.2484488966188403</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>91.64221418703049</v>
+      </c>
+      <c r="C214" t="n">
+        <v>3.69862024450103</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0.6196192061862889</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>92.13078611543486</v>
+      </c>
+      <c r="C215" t="n">
+        <v>6.140366283781566</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0.5808060363439375</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>92.39093126946125</v>
+      </c>
+      <c r="C216" t="n">
+        <v>3.580251533975252</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.392308694597278</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>92.44505847956259</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.623552561625803</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0.6029879989290541</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>93.39674677016286</v>
+      </c>
+      <c r="C218" t="n">
+        <v>6.092779809225621</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4487441282834104</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>93.57492918560118</v>
+      </c>
+      <c r="C219" t="n">
+        <v>6.953776880213774</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0.5186367231920926</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>93.64701520702549</v>
+      </c>
+      <c r="C220" t="n">
+        <v>4.385837180441492</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0.3545372265560299</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>94.54498562775552</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.07579509425524</v>
+      </c>
+      <c r="D221" t="n">
+        <v>0.3467060250628634</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>94.72785189311647</v>
+      </c>
+      <c r="C222" t="n">
+        <v>9.451778557270952</v>
+      </c>
+      <c r="D222" t="n">
+        <v>0.5878312797149677</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>95.82554160343875</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.390210374779515</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.3699831045397933</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>95.92979175618412</v>
+      </c>
+      <c r="C224" t="n">
+        <v>6.786171882969493</v>
+      </c>
+      <c r="D224" t="n">
+        <v>0.463706292763016</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>96.28154778936299</v>
+      </c>
+      <c r="C225" t="n">
+        <v>4.495274730998899</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.3519228645688263</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>96.87174874512458</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2.02088769891735</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0.4742592961838654</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>97.91943918875673</v>
+      </c>
+      <c r="C227" t="n">
+        <v>7.432913193778647</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0.642271850063348</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>98.76930711059406</v>
+      </c>
+      <c r="C228" t="n">
+        <v>3.495250923873279</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0.6366257547990236</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>98.78410687349998</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5.571648638709875</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.5639973112480999</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>99.09076648239905</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5.588473606121275</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0.4368633109480221</v>
       </c>
     </row>
   </sheetData>
